--- a/raw/MajorEmployers 2017.xlsx
+++ b/raw/MajorEmployers 2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="686">
   <si>
     <t xml:space="preserve">Date Received</t>
   </si>
@@ -2027,7 +2027,10 @@
     <t xml:space="preserve">Nustone MFG + Distribution</t>
   </si>
   <si>
-    <t xml:space="preserve">LCS Westminister Partnership</t>
+    <t xml:space="preserve">Davis Standard LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS Westminster Partnership</t>
   </si>
   <si>
     <t xml:space="preserve">Board of Education - Region 12</t>
@@ -2222,7 +2225,7 @@
   </sheetPr>
   <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C147" activeCellId="0" sqref="C147"/>
@@ -2230,9 +2233,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5168,22 +5171,22 @@
   </sheetPr>
   <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A170" activeCellId="0" sqref="A170"/>
+      <selection pane="bottomLeft" activeCell="E156" activeCellId="0" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6738,10 +6741,10 @@
         <v>489</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>490</v>
+        <v>668</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>492</v>
@@ -6896,19 +6899,19 @@
         <v>543</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6970,13 +6973,13 @@
         <v>558</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7007,16 +7010,16 @@
         <v>570</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,7 +7096,7 @@
         <v>65</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7156,7 +7159,7 @@
         <v>606</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>608</v>
@@ -7205,7 +7208,7 @@
         <v>628</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F169" s="0" t="s">
         <v>629</v>
@@ -7220,7 +7223,7 @@
         <v>63</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>30</v>

--- a/raw/MajorEmployers 2017.xlsx
+++ b/raw/MajorEmployers 2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="685">
   <si>
     <t xml:space="preserve">Date Received</t>
   </si>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">Stonington</t>
   </si>
   <si>
-    <t xml:space="preserve">David Standard LLC</t>
+    <t xml:space="preserve">Davis Standard LLC</t>
   </si>
   <si>
     <t xml:space="preserve">McQuades Market Inc.</t>
@@ -2025,9 +2025,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nustone MFG + Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davis Standard LLC</t>
   </si>
   <si>
     <t xml:space="preserve">LCS Westminster Partnership</t>
@@ -2225,17 +2222,17 @@
   </sheetPr>
   <dimension ref="A1:L170"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C147" activeCellId="0" sqref="C147"/>
+      <selection pane="bottomLeft" activeCell="C138" activeCellId="0" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5171,22 +5168,22 @@
   </sheetPr>
   <dimension ref="A1:K170"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E156" activeCellId="0" sqref="E156"/>
+      <selection pane="bottomLeft" activeCell="B138" activeCellId="0" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -6741,10 +6738,10 @@
         <v>489</v>
       </c>
       <c r="B138" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="D138" s="0" t="s">
         <v>668</v>
-      </c>
-      <c r="D138" s="0" t="s">
-        <v>669</v>
       </c>
       <c r="F138" s="0" t="s">
         <v>492</v>
@@ -6899,19 +6896,19 @@
         <v>543</v>
       </c>
       <c r="B151" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="D151" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="F151" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="F151" s="0" t="s">
+      <c r="H151" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="H151" s="0" t="s">
+      <c r="J151" s="0" t="s">
         <v>673</v>
-      </c>
-      <c r="J151" s="0" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6973,13 +6970,13 @@
         <v>558</v>
       </c>
       <c r="F155" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="H155" s="0" t="s">
         <v>675</v>
       </c>
-      <c r="H155" s="0" t="s">
+      <c r="J155" s="0" t="s">
         <v>676</v>
-      </c>
-      <c r="J155" s="0" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7010,16 +7007,16 @@
         <v>570</v>
       </c>
       <c r="D157" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="F157" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="F157" s="0" t="s">
+      <c r="H157" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="H157" s="0" t="s">
+      <c r="J157" s="0" t="s">
         <v>680</v>
-      </c>
-      <c r="J157" s="0" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7096,7 +7093,7 @@
         <v>65</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7159,7 +7156,7 @@
         <v>606</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>608</v>
@@ -7208,7 +7205,7 @@
         <v>628</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F169" s="0" t="s">
         <v>629</v>
@@ -7223,7 +7220,7 @@
         <v>63</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>30</v>

--- a/raw/MajorEmployers 2017.xlsx
+++ b/raw/MajorEmployers 2017.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="697">
   <si>
     <t xml:space="preserve">Date Received</t>
   </si>
@@ -182,6 +182,21 @@
     <t xml:space="preserve">Bridgeport</t>
   </si>
   <si>
+    <t xml:space="preserve">Liberty Tax Svc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trefz Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgeport Hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Vincent's Medical Center</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bridgewater</t>
   </si>
   <si>
@@ -815,6 +830,18 @@
     <t xml:space="preserve">Madison</t>
   </si>
   <si>
+    <t xml:space="preserve">Town of Madison / Madison BOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madison Beach Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grove School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camp Laurelwood</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manchester</t>
   </si>
   <si>
@@ -906,6 +933,15 @@
   </si>
   <si>
     <t xml:space="preserve">Monroe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neopost USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Army Brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really Good Stuff</t>
   </si>
   <si>
     <t xml:space="preserve">Montville</t>
@@ -2082,10 +2118,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -2174,7 +2211,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2192,6 +2229,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2223,17 +2268,27 @@
   <dimension ref="A1:L170"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C138" activeCellId="0" sqref="C138"/>
+      <selection pane="bottomLeft" activeCell="C165" activeCellId="0" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,9 +2552,42 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>42888</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>52</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>2550</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>1900</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <v>1300</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,41 +2595,41 @@
         <v>42835</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2549,22 +2637,22 @@
         <v>42829</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,34 +2660,34 @@
         <v>42849</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>32</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>31</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>27</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>12</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>12</v>
@@ -2610,27 +2698,27 @@
         <v>42835</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,34 +2726,34 @@
         <v>42851</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>476</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>275</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>249</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>177</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>123</v>
@@ -2676,22 +2764,22 @@
         <v>42831</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2699,37 +2787,37 @@
         <v>42829</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,22 +2825,22 @@
         <v>42830</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2760,22 +2848,22 @@
         <v>42829</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,27 +2871,27 @@
         <v>42830</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,34 +2899,34 @@
         <v>42856</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>332</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>310</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>245</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>218</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L34" s="0" t="n">
         <v>160</v>
@@ -2846,17 +2934,17 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,27 +2952,27 @@
         <v>42837</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,42 +2980,42 @@
         <v>42835</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,34 +3023,34 @@
         <v>42856</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>382</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>150</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>74</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>50</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L42" s="0" t="n">
         <v>50</v>
@@ -2970,7 +3058,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,22 +3066,22 @@
         <v>42835</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,32 +3089,32 @@
         <v>42853</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3034,10 +3122,10 @@
         <v>42828</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,61 +3133,61 @@
         <v>42852</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,34 +3195,34 @@
         <v>42829</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>5700</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>800</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>911</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>700</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>500</v>
@@ -3142,39 +3230,39 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>1071</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>459</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>300</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>297</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>200</v>
@@ -3185,90 +3273,90 @@
         <v>42829</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>42851</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>212</v>
+      <c r="B60" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,35 +3364,35 @@
         <v>42831</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>15</v>
@@ -3312,12 +3400,12 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,50 +3413,50 @@
         <v>42829</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,27 +3464,27 @@
         <v>42853</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3404,22 +3492,22 @@
         <v>42830</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,34 +3515,34 @@
         <v>42829</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>175</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>95</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>87</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>70</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L75" s="0" t="n">
         <v>60</v>
@@ -3462,55 +3550,88 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>42922</v>
+      </c>
       <c r="B77" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>773</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="3" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>208</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>171</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>128</v>
@@ -3519,7 +3640,7 @@
         <v>6</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,54 +3648,54 @@
         <v>42828</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>653</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>440</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J81" s="0" t="n">
         <v>320</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="L81" s="0" t="n">
         <v>317</v>
@@ -3582,7 +3703,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,62 +3711,95 @@
         <v>42851</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="n">
+        <v>42887</v>
+      </c>
       <c r="B86" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D86" s="6" t="n">
+        <v>390</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="6" t="n">
+        <v>159</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H86" s="6" t="n">
+        <v>147</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="J86" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="L86" s="6" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="3" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="3" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,22 +3807,22 @@
         <v>42829</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,32 +3830,32 @@
         <v>42837</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="I90" s="0" t="s">
         <v>38</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,27 +3863,27 @@
         <v>42846</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="3" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,22 +3891,22 @@
         <v>42829</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3760,39 +3914,39 @@
         <v>42852</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="3" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3800,22 +3954,22 @@
         <v>42849</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,27 +3977,27 @@
         <v>42829</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,99 +4005,99 @@
         <v>42835</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="3" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>42831</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>359</v>
+      <c r="B103" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="3" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="3" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D105" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>1000</v>
@@ -3955,13 +4109,13 @@
         <v>895</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="J105" s="0" t="n">
         <v>523</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="L105" s="0" t="n">
         <v>252</v>
@@ -3972,30 +4126,30 @@
         <v>42835</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="3" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,22 +4157,22 @@
         <v>42836</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,22 +4180,22 @@
         <v>42850</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,19 +4203,19 @@
         <v>42828</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="K110" s="0" t="s">
         <v>6</v>
@@ -4072,34 +4226,34 @@
         <v>42828</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="D111" s="0" t="n">
         <v>560</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>470</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>420</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="J111" s="0" t="n">
         <v>335</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="L111" s="0" t="n">
         <v>300</v>
@@ -4107,7 +4261,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="3" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4115,52 +4269,52 @@
         <v>42830</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="3" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="3" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="3" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,34 +4322,34 @@
         <v>42836</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="D117" s="0" t="n">
         <v>822</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>300</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>176</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="J117" s="0" t="n">
         <v>300</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="L117" s="0" t="n">
         <v>120</v>
@@ -4206,36 +4360,36 @@
         <v>42829</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="3" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D119" s="0" t="n">
         <v>2700</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>569</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,34 +4397,34 @@
         <v>42830</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="D120" s="0" t="n">
         <v>550</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>327</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="H120" s="0" t="n">
         <v>316</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="J120" s="0" t="n">
         <v>308</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L120" s="0" t="n">
         <v>234</v>
@@ -4281,26 +4435,26 @@
         <v>42829</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="3" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="3" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4308,27 +4462,27 @@
         <v>42854</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="3" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,24 +4490,24 @@
         <v>42829</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="3" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4361,27 +4515,27 @@
         <v>42829</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="K128" s="0" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="3" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,34 +4543,34 @@
         <v>42829</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D130" s="0" t="n">
         <v>736</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F130" s="0" t="n">
         <v>294</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="H130" s="0" t="n">
         <v>125</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="J130" s="0" t="n">
         <v>110</v>
       </c>
       <c r="K130" s="0" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="L130" s="0" t="n">
         <v>68</v>
@@ -4427,34 +4581,34 @@
         <v>42838</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>821</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="F131" s="0" t="n">
         <v>441</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>389</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="J131" s="0" t="n">
         <v>320</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L131" s="0" t="n">
         <v>250</v>
@@ -4462,42 +4616,42 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="3" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="3" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="6" t="s">
-        <v>480</v>
+      <c r="B134" s="8" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="3" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="3" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,22 +4659,22 @@
         <v>42826</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,22 +4682,22 @@
         <v>42844</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="G138" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,52 +4705,52 @@
         <v>42849</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="K139" s="0" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="3" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="3" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="3" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,22 +4758,22 @@
         <v>42850</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>507</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="F143" s="0" t="n">
         <v>335</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="H143" s="0" t="n">
         <v>241</v>
@@ -4631,7 +4785,7 @@
         <v>220</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="L143" s="0" t="n">
         <v>146</v>
@@ -4639,27 +4793,27 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="3" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="3" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4667,47 +4821,47 @@
         <v>42854</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="3" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="3" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4715,34 +4869,34 @@
         <v>42838</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>1694</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="F149" s="0" t="n">
         <v>1325</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="H149" s="0" t="n">
         <v>978</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="J149" s="0" t="n">
         <v>790</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="L149" s="0" t="n">
         <v>610</v>
@@ -4753,19 +4907,19 @@
         <v>42831</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,54 +4927,54 @@
         <v>42849</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="3" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>3692</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="F152" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="J152" s="0" t="n">
         <v>484</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="L152" s="0" t="n">
         <v>450</v>
@@ -4828,12 +4982,12 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="3" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="3" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4841,42 +4995,42 @@
         <v>42851</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="K155" s="0" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="3" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4884,22 +5038,22 @@
         <v>42828</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="K157" s="0" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4907,54 +5061,54 @@
         <v>42829</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="K158" s="0" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="3" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F159" s="0" t="n">
         <v>905</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="H159" s="0" t="n">
         <v>370</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="J159" s="0" t="n">
         <v>295</v>
       </c>
       <c r="K159" s="0" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="L159" s="0" t="n">
         <v>270</v>
@@ -4962,7 +5116,7 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="3" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4970,54 +5124,54 @@
         <v>42845</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="3" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="D162" s="0" t="n">
         <v>800</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="F162" s="0" t="n">
         <v>543</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="H162" s="0" t="n">
         <v>450</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="J162" s="0" t="n">
         <v>239</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="L162" s="0" t="n">
         <v>220</v>
@@ -5025,22 +5179,22 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="3" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,22 +5202,22 @@
         <v>42829</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="K164" s="0" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,32 +5225,32 @@
         <v>42853</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="3" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="3" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,22 +5258,22 @@
         <v>42830</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="K168" s="0" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5127,27 +5281,27 @@
         <v>42832</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="K169" s="0" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="3" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -5169,21 +5323,21 @@
   <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B138" activeCellId="0" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5254,7 +5408,7 @@
         <v>207</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>183</v>
@@ -5266,7 +5420,7 @@
         <v>166</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>147</v>
@@ -5359,115 +5513,115 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1277</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>823</v>
@@ -5479,13 +5633,13 @@
         <v>706</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>526</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>400</v>
@@ -5493,111 +5647,111 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>320</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>300</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>245</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>227</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>175</v>
@@ -5605,74 +5759,74 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>38</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>300</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>290</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>240</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>208</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>180</v>
@@ -5680,176 +5834,176 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>520</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>1071</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>459</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>300</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>297</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>200</v>
@@ -5857,84 +6011,84 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
-        <v>212</v>
+      <c r="A60" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>9445</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>6900</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>3500</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>1252</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>528</v>
@@ -5942,41 +6096,41 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>15</v>
@@ -5984,118 +6138,118 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>208</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>171</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>128</v>
@@ -6104,44 +6258,44 @@
         <v>6</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>653</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>440</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="I81" s="0" t="n">
         <v>320</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>317</v>
@@ -6149,218 +6303,218 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="3" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="3" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="3" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="3" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="3" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="3" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="3" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="3" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6" t="s">
-        <v>359</v>
+      <c r="A103" s="8" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="3" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>1000</v>
@@ -6372,13 +6526,13 @@
         <v>895</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="I105" s="0" t="n">
         <v>523</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>252</v>
@@ -6386,57 +6540,57 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>600</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>500</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="G110" s="0" t="n">
         <v>200</v>
@@ -6448,7 +6602,7 @@
         <v>120</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="K110" s="0" t="n">
         <v>90</v>
@@ -6456,34 +6610,34 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>558</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>480</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>425</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="I111" s="0" t="n">
         <v>330</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>297</v>
@@ -6491,163 +6645,163 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="3" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="3" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="3" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>2700</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="E119" s="0" t="n">
         <v>569</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="3" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="3" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="3" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="3" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="3" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="3" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="3" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="3" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>736</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>294</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="G130" s="0" t="n">
         <v>125</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="I130" s="0" t="n">
         <v>110</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>68</v>
@@ -6655,79 +6809,79 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="3" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="3" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="3" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="6" t="s">
-        <v>480</v>
+      <c r="A134" s="8" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="3" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="3" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="3" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>32</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>23</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="G137" s="0" t="n">
         <v>22</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>10</v>
@@ -6735,19 +6889,19 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="3" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="J138" s="0" t="s">
         <v>6</v>
@@ -6755,60 +6909,60 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="3" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="3" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="3" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="3" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="H142" s="0" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="3" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>507</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="E143" s="0" t="n">
         <v>335</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="G143" s="0" t="n">
         <v>241</v>
@@ -6820,7 +6974,7 @@
         <v>220</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>146</v>
@@ -6828,119 +6982,119 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="3" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="H145" s="0" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="3" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="3" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="3" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="3" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="3" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="3" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="H151" s="0" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="3" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>3692</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="E152" s="0" t="n">
         <v>1800</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="G152" s="0" t="n">
         <v>1300</v>
       </c>
       <c r="H152" s="0" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="I152" s="0" t="n">
         <v>484</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>450</v>
@@ -6948,112 +7102,112 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="3" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="3" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="3" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>442</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="3" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="3" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="3" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>1200</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="E159" s="0" t="n">
         <v>905</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="G159" s="0" t="n">
         <v>370</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="I159" s="0" t="n">
         <v>295</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>270</v>
@@ -7061,71 +7215,71 @@
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="3" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="3" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>700</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="E161" s="0" t="n">
         <v>142</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="G161" s="0" t="n">
         <v>123</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="I161" s="0" t="n">
         <v>65</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="3" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>800</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="E162" s="0" t="n">
         <v>543</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="G162" s="0" t="n">
         <v>450</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="I162" s="0" t="n">
         <v>239</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>220</v>
@@ -7133,94 +7287,94 @@
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="3" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="3" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="3" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="3" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="3" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="3" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>232.75</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="G169" s="0" t="n">
         <v>85</v>
       </c>
       <c r="H169" s="0" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="I169" s="0" t="n">
         <v>63</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>30</v>
@@ -7228,7 +7382,7 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="3" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
